--- a/ds/planejamento/3semestre/planos/Plano_de_Ensino_PSOF2_1.xlsx
+++ b/ds/planejamento/3semestre/planos/Plano_de_Ensino_PSOF2_1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellifabio\Desktop\senai2026\ds\planejamento\3semestre\planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6622DE-3701-4DEA-BE3A-4C9127BED861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AAAF5-6717-4ED4-8F65-A2D71A3ED17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Ensino" sheetId="2" r:id="rId1"/>
-    <sheet name="Situação Avaliação Formativa 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Projeto 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Técnicos</t>
   </si>
   <si>
-    <t>4. Demonstrar autonomia</t>
-  </si>
-  <si>
     <t>TABELA DE NÍVEIS DE DESEMPENHO</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Críticos </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Formativa</t>
   </si>
   <si>
     <t>Desejáveis</t>
@@ -175,12 +166,6 @@
     <t>3. Demonstrar inteligência emocional</t>
   </si>
   <si>
-    <t>Acertou todos os critérios críticos e pelo menos 1 dos 4 desejáveis</t>
-  </si>
-  <si>
-    <t>Acertou todos os critérios críticos e pelo menos 2 dos 4 desejáveis</t>
-  </si>
-  <si>
     <t>Avaliação Formativa - Situação Problema</t>
   </si>
   <si>
@@ -197,25 +182,6 @@
   </si>
   <si>
     <t>Projetor Multimídia, Computador com acesso a internet, Quadro Branco.</t>
-  </si>
-  <si>
-    <t>5 Projetar interfaces para dispositivos móveis
-Implementar o código respeitando as características da linguagem na plataforma mobile</t>
-  </si>
-  <si>
-    <t>11 Utilizar os elementos da programação orientada a objetos em aplicações para dispositivos móveis</t>
-  </si>
-  <si>
-    <t>1 Identificar as características de programação de dispositivos móveis</t>
-  </si>
-  <si>
-    <t>2 Preparar o ambiente necessário ao desenvolvimento do sistema para a plataforma mobile</t>
-  </si>
-  <si>
-    <t>3 Interpretar os requisitos do sistema, tendo em vista a elaboração dos componentes em ambiente mobile</t>
-  </si>
-  <si>
-    <t>4 Definir os elementos de entrada, processamento e saída para a codificação das funcionalidades mobile</t>
   </si>
   <si>
     <t xml:space="preserve">2. Demonstrar pensamento analítico </t>
@@ -349,6 +315,480 @@
   <si>
     <t>Atividade prática solucionando um problema proposto pelo instrutor com auxilio de IA em uma libguagem de programação não estudada no curso.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Você faz parte de uma equipe de programadores e o SCRUM Master alocou você a um projeto e designou tarefas/requisitos para você desenvolver durenta este período:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Descrição do projeto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: A ESCOLA ACME tem atuado em nossa cidade com ótimo atendimento e confiabilidade, é nossa cliente e necessita de um sistema Web para registro das atividades e notas de seus alunos.
+O P.O. após uma visita ao cliente, elaborou o DER e UML DC(Diagrama de Classes) a seguir e elencou os requisitos funcionais.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Divida as tarefas / requisitos com os integrantes do seu grupo e desenvolva as funcionalidades conforme requisitos funcionais e casos de teste:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Escopo do projeto / Backlog do projeto:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Requisitos funcionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[RF001] O sistema deve permitir o CRUD de Alunos, A tela principal deve ter links / menu para acesso a cada funcionalidade em forma de tela ou modal, sua equipe pode ser criativa para desenvolver os layouts de tela que serão apresentados poseriormente para a aprovação do cliente.
+[RF001.1] O sistema deve permitir o CRUD de telefones, pois cada aluno pode possuir 0 ou vários telefones de tipos diferentes como celular, fixo ou comercial.
+[RF001.2] A rota read do aluno deve mostrar os dados de todos os alunos e seus respectivos telefones.
+[RF001.3] A rota readOne do aluno deve mostrar os dados de um aluno específico, seus telefones e suas atividades.
+[RF002] O sistema deve permitir o CRUD de Atividades.
+[RF002.1] O sistema deve associar a atividade a um aluno.
+[RF002.2] Ao cadastrar uma nova atividade create no controller, a dataInicio deve ser gerada pelo Banco de Dados @dedault(now()).
+[RF002.3] Ao cadastrar uma nova atividade create no controller, a dataEntrega, a nota e a parcial podem ser nulas "?" pois serão preenchidas na rota update quando o aluno entregar e o professor corrigir.
+[RF002.4] Se ao realizar update o campo nota for enviado o sistema deve calcular a parcial com a formula "nota * peso / 10".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Casos de teste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[CT001] Deve ser cadastrado pelo menos 5 alunos.
+[CT002] Deve ser cadastrado ao menos 1 telefone para cada aluno.
+[CT002.1] Pelo menos dois alunos devem ter dois ou mais telefones cadastrados.
+[CT003] Cadastre, altere e exclua um aluno.
+[CT004] Cadastre uma atividade para cada aluno.
+[CT004.1] Pelo menos um aluno deve ter duas ou mais atividades cadastradas.
+[CT005] Cadastre, altere e exclua uma atividade.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eleja um integrante do grupo que crie um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>repositório público</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> colocando os outros integrantes como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>colaboradores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, e envie o endereço do repositório para o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>instrutor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para que no papel de "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SCRUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">", possa validar suas implementações e enviar para outros times testar como QA (Quality Aanalists).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">O projeto deve seguir a seguinte estrutura de pastas:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">api/ contendo o código fonte do projeto
+docs/ contendo a documentação básica do projeto, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cronograma / Gráfico Gantt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Requisitos funcionais ilustrados com </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diagramas de Casos de Uso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Tabela de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Custos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, DER e Diagrama de Classes que já foi fornecido.
+docs/prints contendo prints de cada caso de teste. (Integração "Insomnia" e Ponto a Ponto "Front-End")
+web/ contendo o código fonte da UI (User Interface)/Front-End.
+Arquivo README.md com as informações da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>descrição do projeto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tecnologias utilizadas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">passo a passo / tutotial de como executar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o projeto localmente.</t>
+    </r>
+  </si>
+  <si>
+    <t>4 Definir os recursos humanos e materiais para o desenvolvimento dos componentes</t>
+  </si>
+  <si>
+    <t>5 Elaborar cronograma das etapas sequenciadas do desenvolvimento dos componentes, considerando a integração com outros profissionais envolvidos no projeto</t>
+  </si>
+  <si>
+    <t>6 Definir o custo estimado para o desenvolvimento dos componentes</t>
+  </si>
+  <si>
+    <t>10 Implementar as funcionalidades de acordo com os requisitos definidos</t>
+  </si>
+  <si>
+    <t>8 Definir as dependências de software considerando os componentes do sistema, para a sua implantação</t>
+  </si>
+  <si>
+    <t>7 Definir os softwares a serem utilizados no desenvolvimento do sistema</t>
+  </si>
+  <si>
+    <t>Implementou uma solução para o projeto utilizando os frameworks e linguagens estudades nos outros componentes do curso ou pesquisados em uma das diversas fontes de informação.</t>
+  </si>
+  <si>
+    <t>Distrubuiu as terefas/requisitos entre os integrantes do curso, ajudando-se a alcançar os objetivos descridos nas entregas.</t>
+  </si>
+  <si>
+    <t>Elaborou um cronograma utilizando como ferramenta o Gráfico Gantt</t>
+  </si>
+  <si>
+    <t>Elaborou a tabela de custos do projeto</t>
+  </si>
+  <si>
+    <t>Planejou a solução esboçando a UI através de wireframes na ferramenta Figma, Canvas, caderno ou outras como ponto de partida.</t>
+  </si>
+  <si>
+    <t>Implementou cada uma das funcionalidades solucionando o requisito funcional específico.</t>
+  </si>
+  <si>
+    <t>Avaliação Formativa - Projeto</t>
+  </si>
+  <si>
+    <t>Pesquisou em foruns, IAs Generativas (Como apoio e entendimento do que foi gerado) e outras fontes que efetivaram a implementação das soluções durante a implementação.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Somativa</t>
+  </si>
+  <si>
+    <t>Acertou todos os critérios críticos e pelo menos 3 dos 6 desejáveis</t>
+  </si>
+  <si>
+    <t>Acertou todos os critérios críticos e pelo menos 2 dos 6 desejáveis</t>
+  </si>
+  <si>
+    <t>Acertou todos os critérios críticos e pelo menos 1 dos 6 desejáveis</t>
+  </si>
+  <si>
+    <t>Acertou todos os critérios críticos e pelo menos 4 dos 6 desejáveis</t>
+  </si>
+  <si>
+    <t>Cumpriu as metas executando as atividades estabelecidas, cooperando para o sucesso do grupo</t>
+  </si>
+  <si>
+    <t>Compreende como os elementos do sistema se relacionam, como a solução é aplicada para resolver o problema proposto</t>
+  </si>
+  <si>
+    <t>Se dedicou ao aprendizado para compreender o mínimo sobre as tarefas designadas e cumprí-las</t>
+  </si>
+  <si>
+    <t>4 Demonstrar autonomia</t>
+  </si>
+  <si>
+    <t>Questionou os intrutores ou colegas sobre dúvidas ou problemas ocorridos durante o desenvolvimento. Se propôs a resolver estes problemas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizou um gerenciador de dependências como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>npm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yarn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou outro dependendo do framework escolhido.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -358,11 +798,18 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,18 +976,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -603,15 +1038,37 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -640,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -945,30 +1402,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -986,377 +1421,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1371,70 +1577,323 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,6 +1952,67 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1365604</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5172075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="DER e DC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C3AA23-EAD3-CD63-FD9D-BB9F53369669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="13401675"/>
+          <a:ext cx="5528029" cy="4295775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1697,10 +2217,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AA952"/>
+  <dimension ref="A2:AA955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:J21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,162 +2239,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="128" t="s">
-        <v>62</v>
+      <c r="F3" s="56"/>
+      <c r="G3" s="46" t="s">
+        <v>27</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="134" t="s">
-        <v>30</v>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46" t="s">
+        <v>28</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134" t="s">
-        <v>31</v>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="59" t="s">
+        <v>50</v>
       </c>
-      <c r="J3" s="134"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="164" t="s">
-        <v>61</v>
+      <c r="F4" s="59"/>
+      <c r="G4" s="45" t="s">
+        <v>52</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="119" t="s">
-        <v>67</v>
+      <c r="B5" s="68"/>
+      <c r="C5" s="52" t="s">
+        <v>56</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="124" t="s">
-        <v>64</v>
+      <c r="D5" s="52"/>
+      <c r="E5" s="75" t="s">
+        <v>53</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="121" t="s">
-        <v>65</v>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
+        <v>40</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="130" t="s">
-        <v>66</v>
+      <c r="F6" s="54"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
+        <v>26</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
-        <v>38</v>
+      <c r="A9" s="71" t="s">
+        <v>35</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>28</v>
+      <c r="C10" s="31" t="s">
+        <v>25</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="72"/>
+      <c r="I10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1894,32 +2414,32 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>76</v>
+      <c r="A11" s="33" t="s">
+        <v>65</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>68</v>
+      <c r="C11" s="35" t="s">
+        <v>57</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>69</v>
+      <c r="D11" s="36" t="s">
+        <v>58</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>52</v>
+      <c r="E11" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>53</v>
+      <c r="F11" s="29" t="s">
+        <v>48</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>71</v>
+      <c r="G11" s="73" t="s">
+        <v>60</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="51" t="s">
-        <v>72</v>
+      <c r="H11" s="74"/>
+      <c r="I11" s="73" t="s">
+        <v>61</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1939,32 +2459,32 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>77</v>
+      <c r="A12" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>74</v>
+      <c r="C12" s="38" t="s">
+        <v>63</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>79</v>
+      <c r="H12" s="74"/>
+      <c r="I12" s="65" t="s">
+        <v>62</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1984,32 +2504,32 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>78</v>
+      <c r="A13" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="B13" s="2">
         <v>15</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>83</v>
+      <c r="C13" s="38" t="s">
+        <v>72</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>75</v>
+      <c r="D13" s="39" t="s">
+        <v>64</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>80</v>
+      <c r="E13" s="37" t="s">
+        <v>69</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>53</v>
+      <c r="F13" s="29" t="s">
+        <v>48</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>82</v>
+      <c r="G13" s="73" t="s">
+        <v>71</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="49" t="s">
-        <v>87</v>
+      <c r="H13" s="74"/>
+      <c r="I13" s="65" t="s">
+        <v>76</v>
       </c>
-      <c r="J13" s="50"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2029,32 +2549,32 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>84</v>
+      <c r="A14" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>85</v>
+      <c r="C14" s="40" t="s">
+        <v>74</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>80</v>
+      <c r="H14" s="74"/>
+      <c r="I14" s="65" t="s">
+        <v>77</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2074,32 +2594,32 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>89</v>
+      <c r="A15" s="33" t="s">
+        <v>78</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>9</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>90</v>
+      <c r="C15" s="40" t="s">
+        <v>79</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>91</v>
+      <c r="D15" s="39" t="s">
+        <v>80</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>92</v>
+      <c r="E15" s="37" t="s">
+        <v>81</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>93</v>
+      <c r="F15" s="44" t="s">
+        <v>82</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>94</v>
+      <c r="G15" s="73" t="s">
+        <v>83</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49" t="s">
-        <v>95</v>
+      <c r="H15" s="74"/>
+      <c r="I15" s="65" t="s">
+        <v>84</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2119,21 +2639,21 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
+      <c r="A16" s="25" t="s">
+        <v>38</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="41">
         <f>SUM(B8:B15)</f>
         <v>60</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2153,18 +2673,18 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
-        <v>48</v>
+      <c r="A17" s="104" t="s">
+        <v>100</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2184,18 +2704,18 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>34</v>
+      <c r="A18" s="107" t="s">
+        <v>31</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2214,17 +2734,19 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+    <row r="19" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2244,18 +2766,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
-        <v>35</v>
+      <c r="A20" s="107" t="s">
+        <v>32</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2274,18 +2796,19 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="1"/>
+    <row r="21" spans="1:27" ht="332.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="O21" s="1"/>
@@ -2301,18 +2824,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="75" t="s">
-        <v>36</v>
+      <c r="A22" s="107" t="s">
+        <v>33</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2331,17 +2854,19 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
+    <row r="23" spans="1:27" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2361,16 +2886,16 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2390,16 +2915,16 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2419,18 +2944,18 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116" t="s">
-        <v>37</v>
+      <c r="A26" s="62" t="s">
+        <v>34</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2450,18 +2975,18 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
-        <v>39</v>
+      <c r="A27" s="108" t="s">
+        <v>36</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="117" t="s">
-        <v>40</v>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="H27" s="64"/>
       <c r="I27" s="64"/>
@@ -2485,22 +3010,22 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="29">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="26">
         <v>1</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="26">
         <v>2</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="27">
         <v>3</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="27">
         <v>4</v>
       </c>
       <c r="K28" s="5"/>
@@ -2521,21 +3046,23 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="102" t="s">
+    <row r="29" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="105" t="s">
-        <v>56</v>
+      <c r="B29" s="77" t="s">
+        <v>57</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2554,19 +3081,21 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="105" t="s">
-        <v>57</v>
+    <row r="30" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="97"/>
+      <c r="B30" s="77" t="s">
+        <v>88</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2585,19 +3114,21 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="111" t="s">
-        <v>58</v>
+    <row r="31" spans="1:27" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="79" t="s">
+        <v>89</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="98"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2616,19 +3147,21 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="76" t="s">
-        <v>59</v>
+    <row r="32" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="97"/>
+      <c r="B32" s="81" t="s">
+        <v>90</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2647,19 +3180,21 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
-      <c r="B33" s="76" t="s">
-        <v>54</v>
+    <row r="33" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="97"/>
+      <c r="B33" s="88" t="s">
+        <v>93</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2678,19 +3213,21 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="94" t="s">
-        <v>55</v>
+    <row r="34" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="97"/>
+      <c r="B34" s="145" t="s">
+        <v>92</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="98"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="163"/>
+      <c r="F34" s="164"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2709,21 +3246,21 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99" t="s">
-        <v>33</v>
+    <row r="35" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="97"/>
+      <c r="B35" s="145" t="s">
+        <v>91</v>
       </c>
-      <c r="B35" s="70" t="s">
-        <v>44</v>
+      <c r="C35" s="146"/>
+      <c r="D35" s="162" t="s">
+        <v>99</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="164"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2742,19 +3279,21 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="100"/>
-      <c r="B36" s="70" t="s">
-        <v>60</v>
+    <row r="36" spans="1:27" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="98"/>
+      <c r="B36" s="145" t="s">
+        <v>79</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2774,18 +3313,22 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="100"/>
-      <c r="B37" s="70" t="s">
-        <v>45</v>
+      <c r="A37" s="90" t="s">
+        <v>30</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
+      <c r="B37" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2805,18 +3348,20 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="101"/>
-      <c r="B38" s="70" t="s">
-        <v>15</v>
+      <c r="A38" s="91"/>
+      <c r="B38" s="92" t="s">
+        <v>49</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="157"/>
+      <c r="F38" s="158"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2835,17 +3380,21 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+    <row r="39" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="91"/>
+      <c r="B39" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2865,18 +3414,14 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
-        <v>16</v>
-      </c>
+      <c r="A40" s="87"/>
       <c r="B40" s="87"/>
       <c r="C40" s="87"/>
       <c r="D40" s="87"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89" t="s">
-        <v>17</v>
-      </c>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
+      <c r="H40" s="87"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2898,20 +3443,18 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>5</v>
+      <c r="A41" s="83" t="s">
+        <v>15</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>18</v>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86" t="s">
+        <v>16</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61">
-        <v>100</v>
-      </c>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="85"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2934,19 +3477,19 @@
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="B42" s="85" t="s">
-        <v>47</v>
+      <c r="B42" s="101" t="s">
+        <v>17</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61">
-        <v>80</v>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="100">
+        <v>100</v>
       </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2969,19 +3512,19 @@
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="B43" s="85" t="s">
-        <v>46</v>
+      <c r="B43" s="102" t="s">
+        <v>107</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61">
-        <v>65</v>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="100">
+        <v>90</v>
       </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="60"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3004,19 +3547,19 @@
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="B44" s="84" t="s">
-        <v>19</v>
+      <c r="B44" s="153" t="s">
+        <v>104</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61">
-        <v>50</v>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="150">
+        <v>80</v>
       </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="152"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3039,19 +3582,19 @@
     </row>
     <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>20</v>
+      <c r="B45" s="153" t="s">
+        <v>105</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61">
-        <v>30</v>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="150">
+        <v>70</v>
       </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="152"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3072,15 +3615,21 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>3</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="100">
+        <v>60</v>
+      </c>
+      <c r="G46" s="94"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3102,20 +3651,20 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="24" t="s">
-        <v>21</v>
+      <c r="A47" s="13">
+        <v>2</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>22</v>
+      <c r="B47" s="99" t="s">
+        <v>18</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>23</v>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="100">
+        <v>50</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="95"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3137,24 +3686,20 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="62">
+      <c r="A48" s="13">
         <v>1</v>
       </c>
-      <c r="F48" s="62">
-        <v>0</v>
+      <c r="B48" s="101" t="s">
+        <v>19</v>
       </c>
-      <c r="G48" s="64" t="s">
-        <v>25</v>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="100">
+        <v>30</v>
       </c>
-      <c r="H48" s="66" t="s">
-        <v>26</v>
-      </c>
+      <c r="G48" s="94"/>
+      <c r="H48" s="95"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3175,17 +3720,15 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="67"/>
+    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3206,19 +3749,23 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
-        <v>42</v>
+    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
+      <c r="E50" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3237,17 +3784,27 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
+    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="118">
+        <v>1</v>
+      </c>
+      <c r="F51" s="118">
+        <v>0</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3266,15 +3823,17 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
+    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="121"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3296,16 +3855,18 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="A53" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3325,16 +3886,16 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -6949,92 +7510,92 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
-      <c r="W179" s="6"/>
-      <c r="X179" s="6"/>
-      <c r="Y179" s="6"/>
-      <c r="Z179" s="6"/>
-      <c r="AA179" s="6"/>
-    </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
-      <c r="Y180" s="6"/>
-      <c r="Z180" s="6"/>
-      <c r="AA180" s="6"/>
-    </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-      <c r="T181" s="6"/>
-      <c r="U181" s="6"/>
-      <c r="V181" s="6"/>
-      <c r="W181" s="6"/>
-      <c r="X181" s="6"/>
-      <c r="Y181" s="6"/>
-      <c r="Z181" s="6"/>
-      <c r="AA181" s="6"/>
+    <row r="179" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+      <c r="Y179" s="1"/>
+      <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
+    </row>
+    <row r="180" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+    </row>
+    <row r="181" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
@@ -29395,19 +29956,160 @@
       <c r="Z952" s="6"/>
       <c r="AA952" s="6"/>
     </row>
+    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A953" s="6"/>
+      <c r="B953" s="6"/>
+      <c r="C953" s="6"/>
+      <c r="D953" s="6"/>
+      <c r="E953" s="6"/>
+      <c r="F953" s="6"/>
+      <c r="G953" s="6"/>
+      <c r="H953" s="6"/>
+      <c r="I953" s="6"/>
+      <c r="J953" s="6"/>
+      <c r="K953" s="6"/>
+      <c r="L953" s="6"/>
+      <c r="M953" s="6"/>
+      <c r="N953" s="6"/>
+      <c r="O953" s="6"/>
+      <c r="P953" s="6"/>
+      <c r="Q953" s="6"/>
+      <c r="R953" s="6"/>
+      <c r="S953" s="6"/>
+      <c r="T953" s="6"/>
+      <c r="U953" s="6"/>
+      <c r="V953" s="6"/>
+      <c r="W953" s="6"/>
+      <c r="X953" s="6"/>
+      <c r="Y953" s="6"/>
+      <c r="Z953" s="6"/>
+      <c r="AA953" s="6"/>
+    </row>
+    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A954" s="6"/>
+      <c r="B954" s="6"/>
+      <c r="C954" s="6"/>
+      <c r="D954" s="6"/>
+      <c r="E954" s="6"/>
+      <c r="F954" s="6"/>
+      <c r="G954" s="6"/>
+      <c r="H954" s="6"/>
+      <c r="I954" s="6"/>
+      <c r="J954" s="6"/>
+      <c r="K954" s="6"/>
+      <c r="L954" s="6"/>
+      <c r="M954" s="6"/>
+      <c r="N954" s="6"/>
+      <c r="O954" s="6"/>
+      <c r="P954" s="6"/>
+      <c r="Q954" s="6"/>
+      <c r="R954" s="6"/>
+      <c r="S954" s="6"/>
+      <c r="T954" s="6"/>
+      <c r="U954" s="6"/>
+      <c r="V954" s="6"/>
+      <c r="W954" s="6"/>
+      <c r="X954" s="6"/>
+      <c r="Y954" s="6"/>
+      <c r="Z954" s="6"/>
+      <c r="AA954" s="6"/>
+    </row>
+    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A955" s="6"/>
+      <c r="B955" s="6"/>
+      <c r="C955" s="6"/>
+      <c r="D955" s="6"/>
+      <c r="E955" s="6"/>
+      <c r="F955" s="6"/>
+      <c r="G955" s="6"/>
+      <c r="H955" s="6"/>
+      <c r="I955" s="6"/>
+      <c r="J955" s="6"/>
+      <c r="K955" s="6"/>
+      <c r="L955" s="6"/>
+      <c r="M955" s="6"/>
+      <c r="N955" s="6"/>
+      <c r="O955" s="6"/>
+      <c r="P955" s="6"/>
+      <c r="Q955" s="6"/>
+      <c r="R955" s="6"/>
+      <c r="S955" s="6"/>
+      <c r="T955" s="6"/>
+      <c r="U955" s="6"/>
+      <c r="V955" s="6"/>
+      <c r="W955" s="6"/>
+      <c r="X955" s="6"/>
+      <c r="Y955" s="6"/>
+      <c r="Z955" s="6"/>
+      <c r="AA955" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A3:B4"/>
+  <mergeCells count="92">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A53:J54"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="G5:J5"/>
@@ -29424,67 +30126,19 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A50:J51"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -29494,10 +30148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA974"/>
+  <dimension ref="A1:Z950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="D21" sqref="D21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29507,26 +30161,25 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="35.375" customWidth="1"/>
-    <col min="7" max="7" width="3.125" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="8" customWidth="1"/>
-    <col min="16" max="26" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8" customWidth="1"/>
+    <col min="15" max="25" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>48</v>
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>43</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -29543,20 +30196,19 @@
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
-        <v>34</v>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>31</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -29573,18 +30225,17 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -29601,20 +30252,19 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
-        <v>35</v>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="138" t="s">
+        <v>32</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -29631,18 +30281,17 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -29659,17 +30308,16 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+    </row>
+    <row r="6" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -29686,18 +30334,17 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="7"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -29714,20 +30361,19 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
-        <v>36</v>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="138" t="s">
+        <v>33</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -29744,23 +30390,22 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
+    </row>
+    <row r="9" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -29771,20 +30416,19 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
-        <v>37</v>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="141" t="s">
+        <v>34</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -29801,25 +30445,24 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="147" t="s">
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="163" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -29835,25 +30478,24 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="46" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>49</v>
+      <c r="H12" s="42" t="s">
+        <v>44</v>
       </c>
-      <c r="J12" s="45" t="s">
-        <v>50</v>
+      <c r="I12" s="42" t="s">
+        <v>45</v>
       </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -29869,25 +30511,24 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>56</v>
+      <c r="B13" s="77" t="s">
+        <v>57</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="48" t="s">
-        <v>25</v>
+      <c r="C13" s="78"/>
+      <c r="D13" s="156" t="s">
+        <v>98</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -29904,23 +30545,22 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="105" t="s">
-        <v>57</v>
+    </row>
+    <row r="14" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="97"/>
+      <c r="B14" s="77" t="s">
+        <v>88</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="48" t="s">
-        <v>25</v>
+      <c r="C14" s="78"/>
+      <c r="D14" s="156" t="s">
+        <v>95</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -29937,23 +30577,22 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="111" t="s">
-        <v>58</v>
+    </row>
+    <row r="15" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="79" t="s">
+        <v>89</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="48" t="s">
-        <v>25</v>
+      <c r="C15" s="80"/>
+      <c r="D15" s="156" t="s">
+        <v>96</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -29970,23 +30609,22 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="76" t="s">
-        <v>59</v>
+    </row>
+    <row r="16" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="81" t="s">
+        <v>90</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="48" t="s">
-        <v>25</v>
+      <c r="C16" s="82"/>
+      <c r="D16" s="156" t="s">
+        <v>97</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -30003,23 +30641,22 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="76" t="s">
-        <v>54</v>
+    </row>
+    <row r="17" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="88" t="s">
+        <v>93</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="48" t="s">
-        <v>25</v>
+      <c r="C17" s="89"/>
+      <c r="D17" s="159" t="s">
+        <v>94</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -30036,23 +30673,22 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
-      <c r="B18" s="94" t="s">
-        <v>55</v>
+    </row>
+    <row r="18" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97"/>
+      <c r="B18" s="145" t="s">
+        <v>92</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="48" t="s">
-        <v>25</v>
+      <c r="C18" s="146"/>
+      <c r="D18" s="162" t="s">
+        <v>113</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -30069,25 +30705,22 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
-        <v>33</v>
+    </row>
+    <row r="19" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="97"/>
+      <c r="B19" s="145" t="s">
+        <v>91</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>44</v>
+      <c r="C19" s="146"/>
+      <c r="D19" s="162" t="s">
+        <v>99</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -30104,23 +30737,22 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="70" t="s">
-        <v>60</v>
+    </row>
+    <row r="20" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="98"/>
+      <c r="B20" s="145" t="s">
+        <v>79</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="48" t="s">
-        <v>25</v>
+      <c r="C20" s="146"/>
+      <c r="D20" s="165" t="s">
+        <v>101</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -30137,23 +30769,24 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="70" t="s">
-        <v>45</v>
+    </row>
+    <row r="21" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="90" t="s">
+        <v>30</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="48" t="s">
-        <v>25</v>
+      <c r="B21" s="92" t="s">
+        <v>111</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="165" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -30170,23 +30803,22 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="70" t="s">
-        <v>15</v>
+    </row>
+    <row r="22" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="91"/>
+      <c r="B22" s="92" t="s">
+        <v>49</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="48" t="s">
-        <v>25</v>
+      <c r="C22" s="93"/>
+      <c r="D22" s="165" t="s">
+        <v>109</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -30203,507 +30835,522 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
-        <v>16</v>
+    </row>
+    <row r="23" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="91"/>
+      <c r="B23" s="92" t="s">
+        <v>42</v>
       </c>
+      <c r="C23" s="93"/>
+      <c r="D23" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
       <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89" t="s">
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>6</v>
+      </c>
+      <c r="B26" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="100">
+        <v>100</v>
+      </c>
+      <c r="G26" s="95"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B27" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="100">
+        <v>90</v>
+      </c>
+      <c r="G27" s="95"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>4</v>
+      </c>
+      <c r="B28" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="150">
+        <v>80</v>
+      </c>
+      <c r="G28" s="152"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>4</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="150">
+        <v>70</v>
+      </c>
+      <c r="G29" s="152"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>3</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="100">
+        <v>60</v>
+      </c>
+      <c r="G30" s="95"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>2</v>
+      </c>
+      <c r="B31" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61">
-        <v>100</v>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="100">
+        <v>50</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>4</v>
+      <c r="G31" s="95"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>1</v>
       </c>
-      <c r="B26" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61">
-        <v>80</v>
-      </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>3</v>
-      </c>
-      <c r="B27" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61">
-        <v>65</v>
-      </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>2</v>
-      </c>
-      <c r="B28" s="84" t="s">
+      <c r="B32" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61">
-        <v>50</v>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="100">
+        <v>30</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="G32" s="95"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="118">
         <v>1</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>20</v>
+      <c r="F35" s="118">
+        <v>0</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61">
-        <v>30</v>
+      <c r="G35" s="149" t="s">
+        <v>103</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="158">
-        <v>1</v>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="117" t="s">
+        <v>39</v>
       </c>
-      <c r="F32" s="158">
-        <v>0</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="161" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -30713,8 +31360,8 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -30731,7 +31378,6 @@
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -30741,8 +31387,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -30759,7 +31405,6 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -30769,8 +31414,8 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -30787,7 +31432,6 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -30797,8 +31441,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -30815,7 +31459,6 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -30825,8 +31468,8 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -30843,7 +31486,6 @@
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -30853,8 +31495,8 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -30871,7 +31513,6 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -30881,8 +31522,8 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -30899,7 +31540,6 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -30909,8 +31549,8 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -30927,7 +31567,6 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -30937,8 +31576,8 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -30955,7 +31594,6 @@
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -30965,8 +31603,8 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
@@ -30983,9 +31621,8 @@
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -30993,8 +31630,8 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -31011,9 +31648,8 @@
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -31021,8 +31657,8 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -31039,9 +31675,8 @@
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -31049,8 +31684,8 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -31067,9 +31702,8 @@
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -31077,8 +31711,8 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -31095,9 +31729,8 @@
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -31105,8 +31738,8 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -31123,9 +31756,8 @@
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -31133,8 +31765,8 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -31151,9 +31783,8 @@
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -31161,8 +31792,8 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -31179,9 +31810,8 @@
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -31189,8 +31819,8 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -31207,9 +31837,8 @@
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -31217,8 +31846,8 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -31235,9 +31864,8 @@
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -31245,8 +31873,8 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -31263,9 +31891,8 @@
       <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -31273,8 +31900,8 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -31291,9 +31918,8 @@
       <c r="W59" s="8"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -31301,8 +31927,8 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -31319,9 +31945,8 @@
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -31329,8 +31954,8 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -31347,9 +31972,8 @@
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -31357,8 +31981,8 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -31375,9 +31999,8 @@
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -31385,8 +32008,8 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -31403,9 +32026,8 @@
       <c r="W63" s="8"/>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -31413,8 +32035,8 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -31431,9 +32053,8 @@
       <c r="W64" s="8"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -31441,8 +32062,8 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -31459,9 +32080,8 @@
       <c r="W65" s="8"/>
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -31469,8 +32089,8 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -31487,9 +32107,8 @@
       <c r="W66" s="8"/>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -31497,8 +32116,8 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -31515,9 +32134,8 @@
       <c r="W67" s="8"/>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -31525,8 +32143,8 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -31543,9 +32161,8 @@
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -31553,8 +32170,8 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -31571,9 +32188,8 @@
       <c r="W69" s="8"/>
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -31581,8 +32197,8 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -31599,9 +32215,8 @@
       <c r="W70" s="8"/>
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -31609,8 +32224,8 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -31627,9 +32242,8 @@
       <c r="W71" s="8"/>
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -31637,8 +32251,8 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -31655,9 +32269,8 @@
       <c r="W72" s="8"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -31665,8 +32278,8 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -31683,9 +32296,8 @@
       <c r="W73" s="8"/>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -31693,8 +32305,8 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -31711,9 +32323,8 @@
       <c r="W74" s="8"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -31721,8 +32332,8 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -31739,9 +32350,8 @@
       <c r="W75" s="8"/>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -31749,8 +32359,8 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -31767,9 +32377,8 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -31777,8 +32386,8 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -31795,9 +32404,8 @@
       <c r="W77" s="8"/>
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -31805,8 +32413,8 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -31823,9 +32431,8 @@
       <c r="W78" s="8"/>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -31833,8 +32440,8 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -31851,9 +32458,8 @@
       <c r="W79" s="8"/>
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -31861,8 +32467,8 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -31879,9 +32485,8 @@
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -31889,8 +32494,8 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -31907,9 +32512,8 @@
       <c r="W81" s="8"/>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
-      <c r="Z81" s="8"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -31917,8 +32521,8 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -31935,9 +32539,8 @@
       <c r="W82" s="8"/>
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -31945,8 +32548,8 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -31963,9 +32566,8 @@
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
-      <c r="Z83" s="8"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -31973,8 +32575,8 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -31991,9 +32593,8 @@
       <c r="W84" s="8"/>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -32001,8 +32602,8 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -32019,9 +32620,8 @@
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -32029,8 +32629,8 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -32047,9 +32647,8 @@
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -32057,8 +32656,8 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -32075,9 +32674,8 @@
       <c r="W87" s="8"/>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
-      <c r="Z87" s="8"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -32085,8 +32683,8 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -32103,9 +32701,8 @@
       <c r="W88" s="8"/>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
-      <c r="Z88" s="8"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -32113,8 +32710,8 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -32131,9 +32728,8 @@
       <c r="W89" s="8"/>
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -32141,8 +32737,8 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -32159,9 +32755,8 @@
       <c r="W90" s="8"/>
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -32169,8 +32764,8 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -32187,9 +32782,8 @@
       <c r="W91" s="8"/>
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
-      <c r="Z91" s="8"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -32197,8 +32791,8 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -32215,9 +32809,8 @@
       <c r="W92" s="8"/>
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -32225,8 +32818,8 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -32243,9 +32836,8 @@
       <c r="W93" s="8"/>
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
-      <c r="Z93" s="8"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -32253,8 +32845,8 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -32271,9 +32863,8 @@
       <c r="W94" s="8"/>
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
-      <c r="Z94" s="8"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -32281,8 +32872,8 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -32299,9 +32890,8 @@
       <c r="W95" s="8"/>
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
-      <c r="Z95" s="8"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -32309,8 +32899,8 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
@@ -32327,9 +32917,8 @@
       <c r="W96" s="8"/>
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -32337,8 +32926,8 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -32355,9 +32944,8 @@
       <c r="W97" s="8"/>
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -32365,8 +32953,8 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -32383,9 +32971,8 @@
       <c r="W98" s="8"/>
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
-      <c r="Z98" s="8"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -32393,8 +32980,8 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -32411,9 +32998,8 @@
       <c r="W99" s="8"/>
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
-      <c r="Z99" s="8"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -32421,8 +33007,8 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
@@ -32439,9 +33025,8 @@
       <c r="W100" s="8"/>
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -32449,8 +33034,8 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -32467,9 +33052,8 @@
       <c r="W101" s="8"/>
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -32477,8 +33061,8 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -32495,9 +33079,8 @@
       <c r="W102" s="8"/>
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -32505,8 +33088,8 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -32523,9 +33106,8 @@
       <c r="W103" s="8"/>
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -32533,8 +33115,8 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
@@ -32551,9 +33133,8 @@
       <c r="W104" s="8"/>
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
-      <c r="Z104" s="8"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -32561,8 +33142,8 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -32579,9 +33160,8 @@
       <c r="W105" s="8"/>
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
-      <c r="Z105" s="8"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -32589,8 +33169,8 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
@@ -32607,9 +33187,8 @@
       <c r="W106" s="8"/>
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -32617,8 +33196,8 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
@@ -32635,9 +33214,8 @@
       <c r="W107" s="8"/>
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
-      <c r="Z107" s="8"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -32645,8 +33223,8 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
@@ -32663,9 +33241,8 @@
       <c r="W108" s="8"/>
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
-      <c r="Z108" s="8"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -32673,8 +33250,8 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
@@ -32691,9 +33268,8 @@
       <c r="W109" s="8"/>
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
-      <c r="Z109" s="8"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -32701,8 +33277,8 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -32719,9 +33295,8 @@
       <c r="W110" s="8"/>
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -32729,8 +33304,8 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -32747,9 +33322,8 @@
       <c r="W111" s="8"/>
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
-      <c r="Z111" s="8"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -32757,8 +33331,8 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -32775,9 +33349,8 @@
       <c r="W112" s="8"/>
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
-      <c r="Z112" s="8"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -32785,8 +33358,8 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -32803,9 +33376,8 @@
       <c r="W113" s="8"/>
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
-      <c r="Z113" s="8"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -32813,8 +33385,8 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -32831,9 +33403,8 @@
       <c r="W114" s="8"/>
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
-      <c r="Z114" s="8"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -32841,8 +33412,8 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -32859,9 +33430,8 @@
       <c r="W115" s="8"/>
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
-      <c r="Z115" s="8"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -32869,8 +33439,8 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -32887,9 +33457,8 @@
       <c r="W116" s="8"/>
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
-      <c r="Z116" s="8"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -32897,8 +33466,8 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -32915,9 +33484,8 @@
       <c r="W117" s="8"/>
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
-      <c r="Z117" s="8"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -32925,8 +33493,8 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -32943,9 +33511,8 @@
       <c r="W118" s="8"/>
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -32953,8 +33520,8 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -32971,9 +33538,8 @@
       <c r="W119" s="8"/>
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
-      <c r="Z119" s="8"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -32981,8 +33547,8 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -32999,9 +33565,8 @@
       <c r="W120" s="8"/>
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -33009,8 +33574,8 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -33027,9 +33592,8 @@
       <c r="W121" s="8"/>
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
-      <c r="Z121" s="8"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -33037,8 +33601,8 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -33055,9 +33619,8 @@
       <c r="W122" s="8"/>
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -33065,8 +33628,8 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -33083,9 +33646,8 @@
       <c r="W123" s="8"/>
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
-      <c r="Z123" s="8"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -33093,8 +33655,8 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -33111,9 +33673,8 @@
       <c r="W124" s="8"/>
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -33121,8 +33682,8 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -33139,9 +33700,8 @@
       <c r="W125" s="8"/>
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
-      <c r="Z125" s="8"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -33149,8 +33709,8 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -33167,9 +33727,8 @@
       <c r="W126" s="8"/>
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
-      <c r="Z126" s="8"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -33177,8 +33736,8 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -33195,9 +33754,8 @@
       <c r="W127" s="8"/>
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
-      <c r="Z127" s="8"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -33205,8 +33763,8 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -33223,9 +33781,8 @@
       <c r="W128" s="8"/>
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
-      <c r="Z128" s="8"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -33233,8 +33790,8 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -33251,9 +33808,8 @@
       <c r="W129" s="8"/>
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
-      <c r="Z129" s="8"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -33261,8 +33817,8 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -33279,9 +33835,8 @@
       <c r="W130" s="8"/>
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
-      <c r="Z130" s="8"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -33289,8 +33844,8 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -33307,9 +33862,8 @@
       <c r="W131" s="8"/>
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
-      <c r="Z131" s="8"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -33317,8 +33871,8 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -33335,9 +33889,8 @@
       <c r="W132" s="8"/>
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
-      <c r="Z132" s="8"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -33345,8 +33898,8 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -33363,9 +33916,8 @@
       <c r="W133" s="8"/>
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
-      <c r="Z133" s="8"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -33373,8 +33925,8 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -33391,9 +33943,8 @@
       <c r="W134" s="8"/>
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
-      <c r="Z134" s="8"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -33401,8 +33952,8 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -33419,9 +33970,8 @@
       <c r="W135" s="8"/>
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
-      <c r="Z135" s="8"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -33429,8 +33979,8 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -33447,9 +33997,8 @@
       <c r="W136" s="8"/>
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
-      <c r="Z136" s="8"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -33457,8 +34006,8 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -33475,9 +34024,8 @@
       <c r="W137" s="8"/>
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
-      <c r="Z137" s="8"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -33485,8 +34033,8 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -33503,9 +34051,8 @@
       <c r="W138" s="8"/>
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
-      <c r="Z138" s="8"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -33513,8 +34060,8 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -33531,9 +34078,8 @@
       <c r="W139" s="8"/>
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
-      <c r="Z139" s="8"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -33541,8 +34087,8 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -33559,9 +34105,8 @@
       <c r="W140" s="8"/>
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
-      <c r="Z140" s="8"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -33569,8 +34114,8 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -33587,9 +34132,8 @@
       <c r="W141" s="8"/>
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
-      <c r="Z141" s="8"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -33597,8 +34141,8 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -33615,9 +34159,8 @@
       <c r="W142" s="8"/>
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
-      <c r="Z142" s="8"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -33625,8 +34168,8 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -33643,9 +34186,8 @@
       <c r="W143" s="8"/>
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
-      <c r="Z143" s="8"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -33653,8 +34195,8 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -33671,9 +34213,8 @@
       <c r="W144" s="8"/>
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
-      <c r="Z144" s="8"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -33681,8 +34222,8 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -33699,9 +34240,8 @@
       <c r="W145" s="8"/>
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
-      <c r="Z145" s="8"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -33709,8 +34249,8 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -33727,9 +34267,8 @@
       <c r="W146" s="8"/>
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
-      <c r="Z146" s="8"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -33737,8 +34276,8 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -33755,9 +34294,8 @@
       <c r="W147" s="8"/>
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -33765,8 +34303,8 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -33783,9 +34321,8 @@
       <c r="W148" s="8"/>
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
-      <c r="Z148" s="8"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -33793,8 +34330,8 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -33811,9 +34348,8 @@
       <c r="W149" s="8"/>
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
-      <c r="Z149" s="8"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -33821,8 +34357,8 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -33839,9 +34375,8 @@
       <c r="W150" s="8"/>
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
-      <c r="Z150" s="8"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -33849,8 +34384,8 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -33867,9 +34402,8 @@
       <c r="W151" s="8"/>
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
-      <c r="Z151" s="8"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -33877,8 +34411,8 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -33895,9 +34429,8 @@
       <c r="W152" s="8"/>
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
-      <c r="Z152" s="8"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -33905,8 +34438,8 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -33923,9 +34456,8 @@
       <c r="W153" s="8"/>
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
-      <c r="Z153" s="8"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -33933,8 +34465,8 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -33951,9 +34483,8 @@
       <c r="W154" s="8"/>
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
-      <c r="Z154" s="8"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -33961,8 +34492,8 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
@@ -33979,9 +34510,8 @@
       <c r="W155" s="8"/>
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -33989,8 +34519,8 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -34007,9 +34537,8 @@
       <c r="W156" s="8"/>
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
-      <c r="Z156" s="8"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -34017,8 +34546,8 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -34035,9 +34564,8 @@
       <c r="W157" s="8"/>
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
-      <c r="Z157" s="8"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -34045,8 +34573,8 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -34063,9 +34591,8 @@
       <c r="W158" s="8"/>
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
-      <c r="Z158" s="8"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -34073,8 +34600,8 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -34091,9 +34618,8 @@
       <c r="W159" s="8"/>
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
-      <c r="Z159" s="8"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -34101,8 +34627,8 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -34119,9 +34645,8 @@
       <c r="W160" s="8"/>
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
-      <c r="Z160" s="8"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -34129,8 +34654,8 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -34147,9 +34672,8 @@
       <c r="W161" s="8"/>
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
-      <c r="Z161" s="8"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -34157,8 +34681,8 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -34175,9 +34699,8 @@
       <c r="W162" s="8"/>
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
-      <c r="Z162" s="8"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -34185,8 +34708,8 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -34203,9 +34726,8 @@
       <c r="W163" s="8"/>
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
-      <c r="Z163" s="8"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -34213,8 +34735,8 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -34231,9 +34753,8 @@
       <c r="W164" s="8"/>
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
-      <c r="Z164" s="8"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -34241,8 +34762,8 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -34259,9 +34780,8 @@
       <c r="W165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
-      <c r="Z165" s="8"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -34269,8 +34789,8 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -34287,9 +34807,8 @@
       <c r="W166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
-      <c r="Z166" s="8"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -34297,8 +34816,8 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -34315,9 +34834,8 @@
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
-      <c r="Z167" s="8"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -34325,8 +34843,8 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -34343,9 +34861,8 @@
       <c r="W168" s="8"/>
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
-      <c r="Z168" s="8"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -34353,8 +34870,8 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -34371,9 +34888,8 @@
       <c r="W169" s="8"/>
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
-      <c r="Z169" s="8"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -34381,8 +34897,8 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -34399,9 +34915,8 @@
       <c r="W170" s="8"/>
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
-      <c r="Z170" s="8"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -34409,8 +34924,8 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -34427,9 +34942,8 @@
       <c r="W171" s="8"/>
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
-      <c r="Z171" s="8"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -34437,8 +34951,8 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -34455,9 +34969,8 @@
       <c r="W172" s="8"/>
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
-      <c r="Z172" s="8"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -34465,8 +34978,8 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -34483,9 +34996,8 @@
       <c r="W173" s="8"/>
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
-      <c r="Z173" s="8"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -34493,8 +35005,8 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -34511,9 +35023,8 @@
       <c r="W174" s="8"/>
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
-      <c r="Z174" s="8"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -34521,8 +35032,8 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -34539,9 +35050,8 @@
       <c r="W175" s="8"/>
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
-      <c r="Z175" s="8"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -34549,8 +35059,8 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -34567,9 +35077,8 @@
       <c r="W176" s="8"/>
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
-      <c r="Z176" s="8"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -34577,8 +35086,8 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -34595,9 +35104,8 @@
       <c r="W177" s="8"/>
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
-      <c r="Z177" s="8"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -34605,8 +35113,8 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -34623,9 +35131,8 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
-      <c r="Z178" s="8"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -34633,8 +35140,8 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -34651,9 +35158,8 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
-      <c r="Z179" s="8"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -34661,8 +35167,8 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -34679,9 +35185,8 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
-      <c r="Z180" s="8"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -34689,8 +35194,8 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -34707,9 +35212,8 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
-      <c r="Z181" s="8"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -34717,8 +35221,8 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -34735,9 +35239,8 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
-      <c r="Z182" s="8"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -34745,8 +35248,8 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -34763,9 +35266,8 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
-      <c r="Z183" s="8"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -34773,8 +35275,8 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -34791,9 +35293,8 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
-      <c r="Z184" s="8"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -34801,8 +35302,8 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
@@ -34819,9 +35320,8 @@
       <c r="W185" s="8"/>
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
-      <c r="Z185" s="8"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -34829,8 +35329,8 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
@@ -34847,9 +35347,8 @@
       <c r="W186" s="8"/>
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
-      <c r="Z186" s="8"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -34857,8 +35356,8 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
@@ -34875,9 +35374,8 @@
       <c r="W187" s="8"/>
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
-      <c r="Z187" s="8"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -34885,8 +35383,8 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -34903,9 +35401,8 @@
       <c r="W188" s="8"/>
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
-      <c r="Z188" s="8"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -34913,8 +35410,8 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -34931,9 +35428,8 @@
       <c r="W189" s="8"/>
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
-      <c r="Z189" s="8"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -34941,8 +35437,8 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -34959,690 +35455,41 @@
       <c r="W190" s="8"/>
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
-      <c r="Z190" s="8"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="8"/>
-      <c r="O191" s="8"/>
-      <c r="P191" s="8"/>
-      <c r="Q191" s="8"/>
-      <c r="R191" s="8"/>
-      <c r="S191" s="8"/>
-      <c r="T191" s="8"/>
-      <c r="U191" s="8"/>
-      <c r="V191" s="8"/>
-      <c r="W191" s="8"/>
-      <c r="X191" s="8"/>
-      <c r="Y191" s="8"/>
-      <c r="Z191" s="8"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-      <c r="Q192" s="8"/>
-      <c r="R192" s="8"/>
-      <c r="S192" s="8"/>
-      <c r="T192" s="8"/>
-      <c r="U192" s="8"/>
-      <c r="V192" s="8"/>
-      <c r="W192" s="8"/>
-      <c r="X192" s="8"/>
-      <c r="Y192" s="8"/>
-      <c r="Z192" s="8"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="8"/>
-      <c r="M193" s="8"/>
-      <c r="N193" s="8"/>
-      <c r="O193" s="8"/>
-      <c r="P193" s="8"/>
-      <c r="Q193" s="8"/>
-      <c r="R193" s="8"/>
-      <c r="S193" s="8"/>
-      <c r="T193" s="8"/>
-      <c r="U193" s="8"/>
-      <c r="V193" s="8"/>
-      <c r="W193" s="8"/>
-      <c r="X193" s="8"/>
-      <c r="Y193" s="8"/>
-      <c r="Z193" s="8"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="8"/>
-      <c r="S194" s="8"/>
-      <c r="T194" s="8"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="8"/>
-      <c r="X194" s="8"/>
-      <c r="Y194" s="8"/>
-      <c r="Z194" s="8"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="8"/>
-      <c r="O195" s="8"/>
-      <c r="P195" s="8"/>
-      <c r="Q195" s="8"/>
-      <c r="R195" s="8"/>
-      <c r="S195" s="8"/>
-      <c r="T195" s="8"/>
-      <c r="U195" s="8"/>
-      <c r="V195" s="8"/>
-      <c r="W195" s="8"/>
-      <c r="X195" s="8"/>
-      <c r="Y195" s="8"/>
-      <c r="Z195" s="8"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
-      <c r="P196" s="8"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="8"/>
-      <c r="S196" s="8"/>
-      <c r="T196" s="8"/>
-      <c r="U196" s="8"/>
-      <c r="V196" s="8"/>
-      <c r="W196" s="8"/>
-      <c r="X196" s="8"/>
-      <c r="Y196" s="8"/>
-      <c r="Z196" s="8"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-      <c r="P197" s="8"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="8"/>
-      <c r="S197" s="8"/>
-      <c r="T197" s="8"/>
-      <c r="U197" s="8"/>
-      <c r="V197" s="8"/>
-      <c r="W197" s="8"/>
-      <c r="X197" s="8"/>
-      <c r="Y197" s="8"/>
-      <c r="Z197" s="8"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-      <c r="P198" s="8"/>
-      <c r="Q198" s="8"/>
-      <c r="R198" s="8"/>
-      <c r="S198" s="8"/>
-      <c r="T198" s="8"/>
-      <c r="U198" s="8"/>
-      <c r="V198" s="8"/>
-      <c r="W198" s="8"/>
-      <c r="X198" s="8"/>
-      <c r="Y198" s="8"/>
-      <c r="Z198" s="8"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="8"/>
-      <c r="O199" s="8"/>
-      <c r="P199" s="8"/>
-      <c r="Q199" s="8"/>
-      <c r="R199" s="8"/>
-      <c r="S199" s="8"/>
-      <c r="T199" s="8"/>
-      <c r="U199" s="8"/>
-      <c r="V199" s="8"/>
-      <c r="W199" s="8"/>
-      <c r="X199" s="8"/>
-      <c r="Y199" s="8"/>
-      <c r="Z199" s="8"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="8"/>
-      <c r="O200" s="8"/>
-      <c r="P200" s="8"/>
-      <c r="Q200" s="8"/>
-      <c r="R200" s="8"/>
-      <c r="S200" s="8"/>
-      <c r="T200" s="8"/>
-      <c r="U200" s="8"/>
-      <c r="V200" s="8"/>
-      <c r="W200" s="8"/>
-      <c r="X200" s="8"/>
-      <c r="Y200" s="8"/>
-      <c r="Z200" s="8"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-      <c r="P201" s="8"/>
-      <c r="Q201" s="8"/>
-      <c r="R201" s="8"/>
-      <c r="S201" s="8"/>
-      <c r="T201" s="8"/>
-      <c r="U201" s="8"/>
-      <c r="V201" s="8"/>
-      <c r="W201" s="8"/>
-      <c r="X201" s="8"/>
-      <c r="Y201" s="8"/>
-      <c r="Z201" s="8"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="7"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="8"/>
-      <c r="M202" s="8"/>
-      <c r="N202" s="8"/>
-      <c r="O202" s="8"/>
-      <c r="P202" s="8"/>
-      <c r="Q202" s="8"/>
-      <c r="R202" s="8"/>
-      <c r="S202" s="8"/>
-      <c r="T202" s="8"/>
-      <c r="U202" s="8"/>
-      <c r="V202" s="8"/>
-      <c r="W202" s="8"/>
-      <c r="X202" s="8"/>
-      <c r="Y202" s="8"/>
-      <c r="Z202" s="8"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-      <c r="Q203" s="8"/>
-      <c r="R203" s="8"/>
-      <c r="S203" s="8"/>
-      <c r="T203" s="8"/>
-      <c r="U203" s="8"/>
-      <c r="V203" s="8"/>
-      <c r="W203" s="8"/>
-      <c r="X203" s="8"/>
-      <c r="Y203" s="8"/>
-      <c r="Z203" s="8"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="8"/>
-      <c r="N204" s="8"/>
-      <c r="O204" s="8"/>
-      <c r="P204" s="8"/>
-      <c r="Q204" s="8"/>
-      <c r="R204" s="8"/>
-      <c r="S204" s="8"/>
-      <c r="T204" s="8"/>
-      <c r="U204" s="8"/>
-      <c r="V204" s="8"/>
-      <c r="W204" s="8"/>
-      <c r="X204" s="8"/>
-      <c r="Y204" s="8"/>
-      <c r="Z204" s="8"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-      <c r="P205" s="8"/>
-      <c r="Q205" s="8"/>
-      <c r="R205" s="8"/>
-      <c r="S205" s="8"/>
-      <c r="T205" s="8"/>
-      <c r="U205" s="8"/>
-      <c r="V205" s="8"/>
-      <c r="W205" s="8"/>
-      <c r="X205" s="8"/>
-      <c r="Y205" s="8"/>
-      <c r="Z205" s="8"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="7"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="8"/>
-      <c r="M206" s="8"/>
-      <c r="N206" s="8"/>
-      <c r="O206" s="8"/>
-      <c r="P206" s="8"/>
-      <c r="Q206" s="8"/>
-      <c r="R206" s="8"/>
-      <c r="S206" s="8"/>
-      <c r="T206" s="8"/>
-      <c r="U206" s="8"/>
-      <c r="V206" s="8"/>
-      <c r="W206" s="8"/>
-      <c r="X206" s="8"/>
-      <c r="Y206" s="8"/>
-      <c r="Z206" s="8"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="8"/>
-      <c r="M207" s="8"/>
-      <c r="N207" s="8"/>
-      <c r="O207" s="8"/>
-      <c r="P207" s="8"/>
-      <c r="Q207" s="8"/>
-      <c r="R207" s="8"/>
-      <c r="S207" s="8"/>
-      <c r="T207" s="8"/>
-      <c r="U207" s="8"/>
-      <c r="V207" s="8"/>
-      <c r="W207" s="8"/>
-      <c r="X207" s="8"/>
-      <c r="Y207" s="8"/>
-      <c r="Z207" s="8"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="8"/>
-      <c r="M208" s="8"/>
-      <c r="N208" s="8"/>
-      <c r="O208" s="8"/>
-      <c r="P208" s="8"/>
-      <c r="Q208" s="8"/>
-      <c r="R208" s="8"/>
-      <c r="S208" s="8"/>
-      <c r="T208" s="8"/>
-      <c r="U208" s="8"/>
-      <c r="V208" s="8"/>
-      <c r="W208" s="8"/>
-      <c r="X208" s="8"/>
-      <c r="Y208" s="8"/>
-      <c r="Z208" s="8"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="7"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-      <c r="Q209" s="8"/>
-      <c r="R209" s="8"/>
-      <c r="S209" s="8"/>
-      <c r="T209" s="8"/>
-      <c r="U209" s="8"/>
-      <c r="V209" s="8"/>
-      <c r="W209" s="8"/>
-      <c r="X209" s="8"/>
-      <c r="Y209" s="8"/>
-      <c r="Z209" s="8"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-      <c r="Q210" s="8"/>
-      <c r="R210" s="8"/>
-      <c r="S210" s="8"/>
-      <c r="T210" s="8"/>
-      <c r="U210" s="8"/>
-      <c r="V210" s="8"/>
-      <c r="W210" s="8"/>
-      <c r="X210" s="8"/>
-      <c r="Y210" s="8"/>
-      <c r="Z210" s="8"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="7"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="8"/>
-      <c r="O211" s="8"/>
-      <c r="P211" s="8"/>
-      <c r="Q211" s="8"/>
-      <c r="R211" s="8"/>
-      <c r="S211" s="8"/>
-      <c r="T211" s="8"/>
-      <c r="U211" s="8"/>
-      <c r="V211" s="8"/>
-      <c r="W211" s="8"/>
-      <c r="X211" s="8"/>
-      <c r="Y211" s="8"/>
-      <c r="Z211" s="8"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="7"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-      <c r="P212" s="8"/>
-      <c r="Q212" s="8"/>
-      <c r="R212" s="8"/>
-      <c r="S212" s="8"/>
-      <c r="T212" s="8"/>
-      <c r="U212" s="8"/>
-      <c r="V212" s="8"/>
-      <c r="W212" s="8"/>
-      <c r="X212" s="8"/>
-      <c r="Y212" s="8"/>
-      <c r="Z212" s="8"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
-      <c r="M213" s="8"/>
-      <c r="N213" s="8"/>
-      <c r="O213" s="8"/>
-      <c r="P213" s="8"/>
-      <c r="Q213" s="8"/>
-      <c r="R213" s="8"/>
-      <c r="S213" s="8"/>
-      <c r="T213" s="8"/>
-      <c r="U213" s="8"/>
-      <c r="V213" s="8"/>
-      <c r="W213" s="8"/>
-      <c r="X213" s="8"/>
-      <c r="Y213" s="8"/>
-      <c r="Z213" s="8"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
-      <c r="N214" s="8"/>
-      <c r="O214" s="8"/>
-      <c r="P214" s="8"/>
-      <c r="Q214" s="8"/>
-      <c r="R214" s="8"/>
-      <c r="S214" s="8"/>
-      <c r="T214" s="8"/>
-      <c r="U214" s="8"/>
-      <c r="V214" s="8"/>
-      <c r="W214" s="8"/>
-      <c r="X214" s="8"/>
-      <c r="Y214" s="8"/>
-      <c r="Z214" s="8"/>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36369,83 +36216,66 @@
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F27:H27"/>
+  <mergeCells count="58">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:I38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D11:G12"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/ds/planejamento/3semestre/planos/Plano_de_Ensino_PSOF2_1.xlsx
+++ b/ds/planejamento/3semestre/planos/Plano_de_Ensino_PSOF2_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellifabio\Desktop\senai2026\ds\planejamento\3semestre\planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESENVOLVIMENTO\Desktop\senai2026\ds\planejamento\3semestre\planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AAAF5-6717-4ED4-8F65-A2D71A3ED17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958E887-9C2F-4FEC-8F28-5F3C683DFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Ensino" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="h9gkGl1sfnRHyr05LFfZmsKJ7cUyj85gDjaHNauDRX4="/>
     </ext>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -789,6 +792,93 @@
       <t xml:space="preserve"> ou outro dependendo do framework escolhido.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Você faz parte de uma equipe de programadores e o SCRUM Master alocou você a um projeto e designou tarefas/requisitos para você desenvolver durenta este período: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Descrição do projeto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A BIBLIOTECA ACME é a biblioteca da escola ACME, é nossa cliente e necessita de um sistema Web para registro dos empréstimos de livros.
+O P.O. após uma visita ao cliente, elaborou o DER e UML DC(Diagrama de Classes) a seguir e elencou os requisitos funcionais.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Divida as tarefas / requisitos com os integrantes do seu grupo e desenvolva as funcionalidades conforme requisitos funcionais e casos de teste:
+Escopo do projeto / Backlog do projeto:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Requisitos funcionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[RF001] O sistema deve permitir o CRUD de alunos.
+[RF001.1] A rota readOne do aluno deve mostrar os dados de um aluno e seus empréstimos, contendo os dados dos livros emprestados.
+[RF002] O sistema deve permitir o CRUD de emprestimo.
+[RF002.1] O sistema deve associar o emprestimo a um aluno e a um livro.
+[RF002.2] Ao cadastrar um novo emprestimo create no controller, a data e hora da retirada deve ser gerada pelo Banco de Dados @dedault(now()).
+[RF002.3] Ao cadastrar uma novo emprestimo create no controller, a devolucao, deve ser nula "?" pois será preenchida na rota update quando o aluno devolver o livro.
+[RF002.4] Se ao realizar update o campo devolucao for enviado o sistema deve calcular a multa que segue o seguinte critério:
+O aluno pode ficar apenas 3 dias com o livro.
+Se a data da devolução for mais de três dias após a data da retirada, deverá ser cobrada uma multa de 10.00 por dia.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Casos de teste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[CT001] Deve ser cadastrado pelo menos 5 alunos.
+[CT002] Cadastre, altere e exclua um aluno.
+[CT003] Deve ser cadastrado pelo menos 10 livros.
+[CT004] Cadastre uma emprestimo para cada aluno.
+[CT004.1] Pelo menos dois alunos devem ter dois ou mais emprestimos cadastrados.
+[CT004] Cadastre, altere e exclua um emprestimo.
+[CT005] Altere pelo menos dois emprestimos preenchendo a devolucao com data 4 dias maior que a retirada para testar o cálculo da multa.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1097,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1434,11 +1524,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1556,29 +1655,234 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1607,183 +1911,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,9 +1959,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1832,67 +1973,40 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1995,6 +2109,72 @@
         <a:xfrm>
           <a:off x="2571750" y="13401675"/>
           <a:ext cx="5528029" cy="4295775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4695825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="DER e DC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E031163B-28C8-4E30-897B-92C57BC89260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3400425" y="1133475"/>
+          <a:ext cx="6134100" cy="4933950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,10 +2397,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AA955"/>
+  <dimension ref="A2:AA952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J8"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2239,134 +2419,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="135"/>
+      <c r="I3" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="59" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="117"/>
+      <c r="E5" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
     </row>
     <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
@@ -2387,14 +2567,14 @@
       <c r="F10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="72"/>
+      <c r="J10" s="123"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2432,14 +2612,14 @@
       <c r="F11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="58"/>
+      <c r="I11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2477,14 +2657,14 @@
       <c r="F12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="65" t="s">
+      <c r="H12" s="58"/>
+      <c r="I12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2522,14 +2702,14 @@
       <c r="F13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="65" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2567,14 +2747,14 @@
       <c r="F14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2612,14 +2792,14 @@
       <c r="F15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="65" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2650,10 +2830,10 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2673,18 +2853,18 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2704,18 +2884,18 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2735,18 +2915,18 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2766,18 +2946,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2797,18 +2977,18 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="332.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="O21" s="1"/>
@@ -2824,18 +3004,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2854,19 +3034,19 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103" t="s">
+    <row r="23" spans="1:27" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2885,17 +3065,19 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
+    <row r="24" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2914,17 +3096,23 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
+    <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="70" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" s="115"/>
       <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="J25" s="115"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2943,20 +3131,26 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>34</v>
+    <row r="26" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="26">
+        <v>1</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="1"/>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="27">
+        <v>3</v>
+      </c>
+      <c r="J26" s="27">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2974,23 +3168,23 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
-        <v>36</v>
+    <row r="27" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="102" t="s">
+        <v>14</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110" t="s">
-        <v>11</v>
+      <c r="B27" s="105" t="s">
+        <v>57</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="63" t="s">
-        <v>37</v>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107" t="s">
+        <v>98</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3009,26 +3203,22 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="26">
-        <v>1</v>
+    <row r="28" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="103"/>
+      <c r="B28" s="105" t="s">
+        <v>88</v>
       </c>
-      <c r="H28" s="26">
-        <v>2</v>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107" t="s">
+        <v>95</v>
       </c>
-      <c r="I28" s="27">
-        <v>3</v>
-      </c>
-      <c r="J28" s="27">
-        <v>4</v>
-      </c>
-      <c r="K28" s="5"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3046,23 +3236,21 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96" t="s">
-        <v>14</v>
+    <row r="29" spans="1:27" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="103"/>
+      <c r="B29" s="108" t="s">
+        <v>89</v>
       </c>
-      <c r="B29" s="77" t="s">
-        <v>57</v>
+      <c r="C29" s="109"/>
+      <c r="D29" s="107" t="s">
+        <v>96</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="157"/>
-      <c r="F29" s="158"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="12"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3082,16 +3270,16 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="97"/>
-      <c r="B30" s="77" t="s">
-        <v>88</v>
+      <c r="A30" s="103"/>
+      <c r="B30" s="112" t="s">
+        <v>90</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="156" t="s">
-        <v>95</v>
+      <c r="C30" s="113"/>
+      <c r="D30" s="107" t="s">
+        <v>97</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="12"/>
       <c r="H30" s="23"/>
       <c r="I30" s="19"/>
@@ -3114,17 +3302,17 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="79" t="s">
-        <v>89</v>
+    <row r="31" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="103"/>
+      <c r="B31" s="45" t="s">
+        <v>93</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="156" t="s">
-        <v>96</v>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47" t="s">
+        <v>94</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="12"/>
       <c r="H31" s="23"/>
       <c r="I31" s="19"/>
@@ -3147,17 +3335,17 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
-      <c r="B32" s="81" t="s">
-        <v>90</v>
+    <row r="32" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="103"/>
+      <c r="B32" s="53" t="s">
+        <v>92</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="156" t="s">
-        <v>97</v>
+      <c r="C32" s="54"/>
+      <c r="D32" s="50" t="s">
+        <v>113</v>
       </c>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="12"/>
       <c r="H32" s="23"/>
       <c r="I32" s="19"/>
@@ -3180,17 +3368,17 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
-      <c r="B33" s="88" t="s">
-        <v>93</v>
+    <row r="33" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="103"/>
+      <c r="B33" s="53" t="s">
+        <v>91</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="159" t="s">
-        <v>94</v>
+      <c r="C33" s="54"/>
+      <c r="D33" s="50" t="s">
+        <v>99</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="161"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="12"/>
       <c r="H33" s="23"/>
       <c r="I33" s="19"/>
@@ -3213,17 +3401,17 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="97"/>
-      <c r="B34" s="145" t="s">
-        <v>92</v>
+    <row r="34" spans="1:27" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="104"/>
+      <c r="B34" s="53" t="s">
+        <v>79</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="162" t="s">
-        <v>113</v>
+      <c r="C34" s="54"/>
+      <c r="D34" s="95" t="s">
+        <v>101</v>
       </c>
-      <c r="E34" s="163"/>
-      <c r="F34" s="164"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="12"/>
       <c r="H34" s="23"/>
       <c r="I34" s="19"/>
@@ -3246,17 +3434,19 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="97"/>
-      <c r="B35" s="145" t="s">
-        <v>91</v>
+    <row r="35" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="98" t="s">
+        <v>30</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="162" t="s">
-        <v>99</v>
+      <c r="B35" s="100" t="s">
+        <v>41</v>
       </c>
-      <c r="E35" s="163"/>
-      <c r="F35" s="164"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="12"/>
       <c r="H35" s="23"/>
       <c r="I35" s="19"/>
@@ -3279,17 +3469,17 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="145" t="s">
-        <v>79</v>
+    <row r="36" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="100" t="s">
+        <v>49</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="165" t="s">
-        <v>101</v>
+      <c r="C36" s="101"/>
+      <c r="D36" s="95" t="s">
+        <v>109</v>
       </c>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="12"/>
       <c r="H36" s="23"/>
       <c r="I36" s="19"/>
@@ -3313,18 +3503,16 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="90" t="s">
-        <v>30</v>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100" t="s">
+        <v>42</v>
       </c>
-      <c r="B37" s="92" t="s">
-        <v>41</v>
+      <c r="C37" s="101"/>
+      <c r="D37" s="95" t="s">
+        <v>110</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="165" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="12"/>
       <c r="H37" s="23"/>
       <c r="I37" s="19"/>
@@ -3347,21 +3535,17 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+    <row r="38" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3380,21 +3564,21 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
-      <c r="B39" s="92" t="s">
-        <v>42</v>
+    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="90" t="s">
+        <v>15</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="165" t="s">
-        <v>110</v>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93" t="s">
+        <v>16</v>
       </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3414,14 +3598,20 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="A40" s="13">
+        <v>6</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67">
+        <v>100</v>
+      </c>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3443,18 +3633,20 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
-        <v>15</v>
+      <c r="A41" s="13">
+        <v>5</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86" t="s">
-        <v>16</v>
+      <c r="B41" s="89" t="s">
+        <v>107</v>
       </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67">
+        <v>90</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3477,19 +3669,19 @@
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="B42" s="101" t="s">
-        <v>17</v>
+      <c r="B42" s="83" t="s">
+        <v>104</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="100">
-        <v>100</v>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86">
+        <v>80</v>
       </c>
-      <c r="G42" s="94"/>
-      <c r="H42" s="95"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3512,19 +3704,19 @@
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B43" s="102" t="s">
-        <v>107</v>
+      <c r="B43" s="83" t="s">
+        <v>105</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="100">
-        <v>90</v>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86">
+        <v>70</v>
       </c>
-      <c r="G43" s="94"/>
-      <c r="H43" s="95"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3547,19 +3739,19 @@
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B44" s="153" t="s">
-        <v>104</v>
+      <c r="B44" s="89" t="s">
+        <v>106</v>
       </c>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="150">
-        <v>80</v>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67">
+        <v>60</v>
       </c>
-      <c r="G44" s="151"/>
-      <c r="H44" s="152"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3582,19 +3774,19 @@
     </row>
     <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
-      <c r="B45" s="153" t="s">
-        <v>105</v>
+      <c r="B45" s="82" t="s">
+        <v>18</v>
       </c>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="150">
-        <v>70</v>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67">
+        <v>50</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="152"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="66"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3617,19 +3809,19 @@
     </row>
     <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B46" s="102" t="s">
-        <v>106</v>
+      <c r="B46" s="64" t="s">
+        <v>19</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="100">
-        <v>60</v>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67">
+        <v>30</v>
       </c>
-      <c r="G46" s="94"/>
-      <c r="H46" s="95"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="66"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3650,21 +3842,15 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>2</v>
-      </c>
-      <c r="B47" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="100">
-        <v>50</v>
-      </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="95"/>
+    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3685,21 +3871,21 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>1</v>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="B48" s="101" t="s">
-        <v>19</v>
+      <c r="E48" s="21" t="s">
+        <v>21</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="100">
-        <v>30</v>
+      <c r="F48" s="21" t="s">
+        <v>22</v>
       </c>
-      <c r="G48" s="94"/>
-      <c r="H48" s="95"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3720,15 +3906,25 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="68">
+        <v>1</v>
+      </c>
+      <c r="F49" s="68">
+        <v>0</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="72" t="s">
+        <v>103</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3749,21 +3945,17 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="21" t="s">
-        <v>20</v>
+      <c r="C50" s="17"/>
+      <c r="D50" s="32" t="s">
+        <v>24</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="73"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3784,27 +3976,19 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="22" t="s">
-        <v>23</v>
+    <row r="51" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="63" t="s">
+        <v>39</v>
       </c>
-      <c r="E51" s="118">
-        <v>1</v>
-      </c>
-      <c r="F51" s="118">
-        <v>0</v>
-      </c>
-      <c r="G51" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3823,17 +4007,15 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="121"/>
+    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3855,18 +4037,16 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3886,16 +4066,16 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -7510,92 +7690,92 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
-    </row>
-    <row r="180" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
-    </row>
-    <row r="181" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="6"/>
+      <c r="X179" s="6"/>
+      <c r="Y179" s="6"/>
+      <c r="Z179" s="6"/>
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6"/>
+      <c r="V180" s="6"/>
+      <c r="W180" s="6"/>
+      <c r="X180" s="6"/>
+      <c r="Y180" s="6"/>
+      <c r="Z180" s="6"/>
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="6"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="6"/>
+      <c r="X181" s="6"/>
+      <c r="Y181" s="6"/>
+      <c r="Z181" s="6"/>
+      <c r="AA181" s="6"/>
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
@@ -29956,162 +30136,18 @@
       <c r="Z952" s="6"/>
       <c r="AA952" s="6"/>
     </row>
-    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="6"/>
-      <c r="B953" s="6"/>
-      <c r="C953" s="6"/>
-      <c r="D953" s="6"/>
-      <c r="E953" s="6"/>
-      <c r="F953" s="6"/>
-      <c r="G953" s="6"/>
-      <c r="H953" s="6"/>
-      <c r="I953" s="6"/>
-      <c r="J953" s="6"/>
-      <c r="K953" s="6"/>
-      <c r="L953" s="6"/>
-      <c r="M953" s="6"/>
-      <c r="N953" s="6"/>
-      <c r="O953" s="6"/>
-      <c r="P953" s="6"/>
-      <c r="Q953" s="6"/>
-      <c r="R953" s="6"/>
-      <c r="S953" s="6"/>
-      <c r="T953" s="6"/>
-      <c r="U953" s="6"/>
-      <c r="V953" s="6"/>
-      <c r="W953" s="6"/>
-      <c r="X953" s="6"/>
-      <c r="Y953" s="6"/>
-      <c r="Z953" s="6"/>
-      <c r="AA953" s="6"/>
-    </row>
-    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="6"/>
-      <c r="B954" s="6"/>
-      <c r="C954" s="6"/>
-      <c r="D954" s="6"/>
-      <c r="E954" s="6"/>
-      <c r="F954" s="6"/>
-      <c r="G954" s="6"/>
-      <c r="H954" s="6"/>
-      <c r="I954" s="6"/>
-      <c r="J954" s="6"/>
-      <c r="K954" s="6"/>
-      <c r="L954" s="6"/>
-      <c r="M954" s="6"/>
-      <c r="N954" s="6"/>
-      <c r="O954" s="6"/>
-      <c r="P954" s="6"/>
-      <c r="Q954" s="6"/>
-      <c r="R954" s="6"/>
-      <c r="S954" s="6"/>
-      <c r="T954" s="6"/>
-      <c r="U954" s="6"/>
-      <c r="V954" s="6"/>
-      <c r="W954" s="6"/>
-      <c r="X954" s="6"/>
-      <c r="Y954" s="6"/>
-      <c r="Z954" s="6"/>
-      <c r="AA954" s="6"/>
-    </row>
-    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="6"/>
-      <c r="B955" s="6"/>
-      <c r="C955" s="6"/>
-      <c r="D955" s="6"/>
-      <c r="E955" s="6"/>
-      <c r="F955" s="6"/>
-      <c r="G955" s="6"/>
-      <c r="H955" s="6"/>
-      <c r="I955" s="6"/>
-      <c r="J955" s="6"/>
-      <c r="K955" s="6"/>
-      <c r="L955" s="6"/>
-      <c r="M955" s="6"/>
-      <c r="N955" s="6"/>
-      <c r="O955" s="6"/>
-      <c r="P955" s="6"/>
-      <c r="Q955" s="6"/>
-      <c r="R955" s="6"/>
-      <c r="S955" s="6"/>
-      <c r="T955" s="6"/>
-      <c r="U955" s="6"/>
-      <c r="V955" s="6"/>
-      <c r="W955" s="6"/>
-      <c r="X955" s="6"/>
-      <c r="Y955" s="6"/>
-      <c r="Z955" s="6"/>
-      <c r="AA955" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A53:J54"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="G27:J27"/>
+  <mergeCells count="90">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J8"/>
     <mergeCell ref="I12:J12"/>
@@ -30127,16 +30163,71 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -30148,10 +30239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z950"/>
+  <dimension ref="A1:Z949"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30169,15 +30260,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -30198,15 +30289,15 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -30226,15 +30317,16 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="7"/>
+    <row r="3" spans="1:26" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -30253,17 +30345,14 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:26" ht="398.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -30282,14 +30371,16 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -30309,14 +30400,17 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+    <row r="6" spans="1:26" ht="307.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -30336,13 +30430,13 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -30363,15 +30457,15 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -30391,16 +30485,19 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+    <row r="9" spans="1:26" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
       <c r="K9" s="8"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -30418,15 +30515,15 @@
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -30447,21 +30544,21 @@
       <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="133" t="s">
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="144" t="s">
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -30480,12 +30577,12 @@
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="43" t="s">
         <v>13</v>
       </c>
@@ -30513,18 +30610,18 @@
       <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="156" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -30547,16 +30644,16 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="156" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="23"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -30579,16 +30676,16 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="156" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="23"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -30611,16 +30708,16 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="156" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="23"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -30643,16 +30740,16 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="159" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="160"/>
-      <c r="F17" s="161"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="23"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -30675,16 +30772,16 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="145" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="162" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="164"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="23"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -30707,16 +30804,16 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
-      <c r="B19" s="145" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="162" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="164"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="23"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -30739,16 +30836,16 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="145" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="165" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="23"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -30771,18 +30868,18 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="165" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="23"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -30805,16 +30902,16 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="99"/>
+      <c r="B22" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="165" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="23"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -30837,16 +30934,16 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="165" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="23"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -30869,13 +30966,13 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -30897,17 +30994,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="85"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -30932,16 +31029,16 @@
       <c r="A26" s="13">
         <v>6</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="100">
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67">
         <v>100</v>
       </c>
-      <c r="G26" s="95"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -30966,16 +31063,16 @@
       <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="100">
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67">
         <v>90</v>
       </c>
-      <c r="G27" s="95"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -31000,16 +31097,16 @@
       <c r="A28" s="13">
         <v>4</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="150">
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86">
         <v>80</v>
       </c>
-      <c r="G28" s="152"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -31034,16 +31131,16 @@
       <c r="A29" s="13">
         <v>4</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="150">
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86">
         <v>70</v>
       </c>
-      <c r="G29" s="152"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -31068,16 +31165,16 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="100">
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67">
         <v>60</v>
       </c>
-      <c r="G30" s="95"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -31102,16 +31199,16 @@
       <c r="A31" s="13">
         <v>2</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="100">
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67">
         <v>50</v>
       </c>
-      <c r="G31" s="95"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -31136,16 +31233,16 @@
       <c r="A32" s="13">
         <v>1</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="100">
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67">
         <v>30</v>
       </c>
-      <c r="G32" s="95"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -31235,13 +31332,13 @@
       <c r="D35" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="118">
+      <c r="E35" s="68">
         <v>1</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F35" s="68">
         <v>0</v>
       </c>
-      <c r="G35" s="149" t="s">
+      <c r="G35" s="72" t="s">
         <v>103</v>
       </c>
       <c r="H35" s="1"/>
@@ -31271,11 +31368,9 @@
       <c r="D36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="73"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -31294,18 +31389,16 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+    <row r="37" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="170"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -31324,33 +31417,32 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -35429,33 +35521,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
-      <c r="O190" s="8"/>
-      <c r="P190" s="8"/>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="8"/>
-      <c r="S190" s="8"/>
-      <c r="T190" s="8"/>
-      <c r="U190" s="8"/>
-      <c r="V190" s="8"/>
-      <c r="W190" s="8"/>
-      <c r="X190" s="8"/>
-      <c r="Y190" s="8"/>
-    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36215,25 +36281,31 @@
     <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:I38"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:C21"/>
@@ -36250,34 +36322,28 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>